--- a/tests/testthat/fixtures/metadata/metadata_zero_heading.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_zero_heading.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B04BD37-3032-4321-8ED3-BD4B7E7B157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C61A2A-C96C-47C5-9B55-9457D71FE061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="0" windowWidth="23430" windowHeight="31680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="7275" windowWidth="15450" windowHeight="13425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="Table2" sheetId="2" r:id="rId2"/>
     <sheet name="Variables" sheetId="3" r:id="rId3"/>
-    <sheet name="Codelists" sheetId="4" r:id="rId4"/>
+    <sheet name="Cells" sheetId="4" r:id="rId4"/>
     <sheet name="Data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -584,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/testthat/fixtures/metadata/metadata_zero_heading.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_zero_heading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C61A2A-C96C-47C5-9B55-9457D71FE061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261E9AA4-0364-48D0-82CB-C248EDCC798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="7275" windowWidth="15450" windowHeight="13425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="5880" windowWidth="15450" windowHeight="13425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>keyword</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>variable-type</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="pivot"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="order"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="variable-code"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="variable-type"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="en_variable-label"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="en_note"/>
   </tableColumns>
@@ -824,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +852,7 @@
         <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
         <v>42</v>
@@ -896,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
